--- a/zz3/Notes.xlsx
+++ b/zz3/Notes.xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,19 +1143,19 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="19">
-        <v>2</v>
-      </c>
-      <c r="C33" s="19">
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
         <v>14</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="2">
         <v>28</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="24">
         <v>8</v>
       </c>
     </row>
